--- a/CoC/ododok.xlsx
+++ b/CoC/ododok.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazin\OneDrive\바탕 화면\듀아아 듀 듀듀듀 듀\일립시스\trpg\ododok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazin\OneDrive\바탕 화면\듀아아 듀 듀듀듀 듀\일립시스\trpg\CoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -96,34 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
-  <x:si>
-    <x:t>허리까지 내려오는 길이의 가늘고 까만 흑발과 연하늘+붉은 눈동자. 성인 남성이 훌쩍 들 수 있을 정도로 마른 체격. 얼핏 보기에는 청년~소녀 사이의 이미지. 어쩐지 위험한 분위기가 감도는 편. 크로스드레서로 여성복을 주로 입고 다님. 제일 자주 입는 옷은 검은색 치파오. 화려하고 치렁치렁한 귀걸이를 자주 착용하고 다님.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 정신 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업 기능 점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심 기능 점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포증과 집착증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의미 있는 장소들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신화서, 주문, 유물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>白夜가 각인된 단검: 당신이 위험에 처한 순간이라면 언제, 어느 상황에서든 어느새 당신의 손에 쥐어져 있는 단검. 1d4+1+db (치)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[조직범죄 경험 패키지] 시체를 보거나, 살인을 목격하거나, 살인을 저지르거나, 인간에 대한 폭력 행위를 보는 것으로는 이성을 잃지 않습니다.</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
   <x:si>
     <x:t>▣ 시트 제작자: 향영 @H0_trpg
 ▣ 본 시트를 사용하기 위해서는 시트 위 파일&gt;사본만들기를 통해 가져가세요.
@@ -131,10 +104,31 @@
 ▣ 추가사항은 커서를 올려 확인해주세요.</x:t>
   </x:si>
   <x:si>
+    <x:t>공포증과 집착증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심 기능 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 정신 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업 기능 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의미 있는 장소들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신화서, 주문, 유물</x:t>
+  </x:si>
+  <x:si>
     <x:t>결혼반지(아티팩트), 부채</x:t>
   </x:si>
   <x:si>
     <x:t>기이한 존재들과의 만남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허리까지 내려오는 길이의 가늘고 까만 흑발과 연하늘+붉은 눈동자. 성인 남성이 훌쩍 들 수 있을 정도로 마른 체격. 얼핏 보기에는 청년~소녀 사이의 이미지. 어쩐지 위험한 분위기가 감도는 편. 크로스드레서로 여성복을 주로 입고 다님. 제일 자주 입는 옷은 검은색 치파오. 화려하고 치렁치렁한 귀걸이를 자주 착용하고 다님.</x:t>
   </x:si>
   <x:si>
     <x:t>니알라토텝 (불멸을 선사했던 존재)
@@ -148,372 +142,378 @@
 신 송환 : 크투가 송환에 사용했으나 실패.</x:t>
   </x:si>
   <x:si>
-    <x:t>▣커서를 올려 확인해주세요. 메모를 포함한 이 칸을 지우거나 수정하는 것을 금합니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>과거 불멸에서 벗어나기 위해 발버둥치면서 이골로낙을 불러 스스로 세계를 멸망시켰던 적이 있다. 그 과정에서 본인도 커다란 상처를 입었고, 모든 상처가 자동으로 회복되는 몸이었으나 같은 신적 존재에게 입은 상처였기에 완전히 회복되진 않아서 등에 문양 같아보이는 흉터(성흔)가 남았다.
 왼쪽 팔부터 팔꿈치 안쪽까지 이어지는 긴 흉터. 목덜미 여기저기 옅은 송곳니 자국들. 결혼반지 밑에 날카롭게 빙 둘러 찢어진 흉터(화이트와의 결혼반지 대신이며, 화이트의 송곳니로 찢은 것.</x:t>
   </x:si>
   <x:si>
+    <x:t>▣커서를 올려 확인해주세요. 메모를 포함한 이 칸을 지우거나 수정하는 것을 금합니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>자신의 불멸을 끝내준 스펜서에게 집착함
 쥐괴물 공포증</x:t>
   </x:si>
   <x:si>
+    <x:t>Call of Cthulhu 7th edition 캐릭터 시트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민첩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거주지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오컬트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라일라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴욕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투척</x:t>
+  </x:si>
+  <x:si>
+    <x:t>듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤이예</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은행장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열쇠공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매혹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위협</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말재주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고고학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비무장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인류학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관찰력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설득</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>db</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심리학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겉보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손놀림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>白夜가 각인된 단검: 당신이 위험에 처한 순간이라면 언제, 어느 상황에서든 어느새 당신의 손에 쥐어져 있는 단검. 1d4+1+db (치)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[조직범죄 경험 패키지] 시체를 보거나, 살인을 목격하거나, 살인을 저지르거나, 인간에 대한 폭력 행위를 보는 것으로는 이성을 잃지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접전(격투)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부상과 흉터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글록17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소비 수준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중요한 사람들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스킬 성장치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피해 보너스</x:t>
+  </x:si>
+  <x:si>
     <x:t>탐사자정보</x:t>
   </x:si>
   <x:si>
     <x:t>플레이어</x:t>
   </x:si>
   <x:si>
-    <x:t>공격 횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1d10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접전(격투)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부상과 흉터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글록17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소비 수준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중요한 사람들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스킬 성장치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피해 보너스</x:t>
+    <x:t>소중한 물건들</x:t>
   </x:si>
   <x:si>
     <x:t>크툴루 신화</x:t>
   </x:si>
   <x:si>
+    <x:t>응급처치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탐사자 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d4+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시적 광기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백스토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광기의 발작</x:t>
+  </x:si>
+  <x:si>
     <x:t>장비와 소지품</x:t>
   </x:si>
   <x:si>
-    <x:t>일시적 광기</x:t>
+    <x:t>장기적 광기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기수리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜서 화이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사격(라/산)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금과 자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계수리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남은 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사상/신념</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술/공예</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사격(권총)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중장비 조작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동차 운전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료조사</x:t>
   </x:si>
   <x:si>
     <x:t>언어(모국어)</x:t>
   </x:si>
   <x:si>
-    <x:t>자동차 운전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응급처치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장기적 광기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계수리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탐사자 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광기의 발작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남은 점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술/공예</x:t>
-  </x:si>
-  <x:si>
     <x:t>은밀행동</x:t>
   </x:si>
   <x:si>
-    <x:t>소중한 물건들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사격(권총)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기수리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중장비 조작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사상/신념</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사격(라/산)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1d4+1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜서 화이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금과 자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Call of Cthulhu 7th edition 캐릭터 시트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라일라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은행장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민첩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤이예</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴욕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거주지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투척</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오컬트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열쇠공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인류학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관찰력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고고학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매혹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위협</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말재주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비무장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겉보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심리학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손놀림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>db</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1d3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
+    <x:t>1d4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -4713,7 +4713,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff0075ff"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4770,7 +4769,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4791,7 +4789,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4812,7 +4809,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4843,7 +4839,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4874,7 +4869,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4952,7 +4946,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -4987,7 +4980,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -5022,7 +5014,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -5067,7 +5058,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -5111,7 +5101,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -5203,7 +5192,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5448,7 +5437,7 @@
   <x:dimension ref="A1:BA88"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="AY6" activeCellId="0" sqref="AY6:AY6"/>
+      <x:selection activeCell="Q33" activeCellId="0" sqref="Q33:AC36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5502,7 +5491,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:53" ht="45" customHeight="1">
       <x:c r="A1" s="173" t="s">
-        <x:v>54</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="173"/>
       <x:c r="C1" s="173"/>
@@ -5615,7 +5604,7 @@
     <x:row r="3" spans="1:53" customHeight="1">
       <x:c r="A3" s="5"/>
       <x:c r="B3" s="174" t="s">
-        <x:v>17</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C3" s="175"/>
       <x:c r="D3" s="175"/>
@@ -5639,7 +5628,7 @@
       <x:c r="V3" s="6"/>
       <x:c r="W3" s="7"/>
       <x:c r="X3" s="174" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="Y3" s="175"/>
       <x:c r="Z3" s="175"/>
@@ -5733,7 +5722,7 @@
       <x:c r="D5" s="20"/>
       <x:c r="E5" s="20"/>
       <x:c r="F5" s="177" t="s">
-        <x:v>64</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G5" s="178"/>
       <x:c r="H5" s="178"/>
@@ -5787,7 +5776,7 @@
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="25"/>
       <x:c r="C6" s="183" t="s">
-        <x:v>69</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D6" s="183"/>
       <x:c r="E6" s="184"/>
@@ -5810,7 +5799,7 @@
       <x:c r="V6" s="6"/>
       <x:c r="W6" s="7"/>
       <x:c r="X6" s="185" t="s">
-        <x:v>71</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Y6" s="164"/>
       <x:c r="Z6" s="163">
@@ -5826,7 +5815,7 @@
       <x:c r="AE6" s="26"/>
       <x:c r="AF6" s="26"/>
       <x:c r="AG6" s="169" t="s">
-        <x:v>60</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="AH6" s="164"/>
       <x:c r="AI6" s="163">
@@ -5842,7 +5831,7 @@
       <x:c r="AN6" s="172"/>
       <x:c r="AO6" s="26"/>
       <x:c r="AP6" s="169" t="s">
-        <x:v>55</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="AQ6" s="164"/>
       <x:c r="AR6" s="163">
@@ -5920,12 +5909,12 @@
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="25"/>
       <x:c r="C8" s="183" t="s">
-        <x:v>18</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D8" s="183"/>
       <x:c r="E8" s="166"/>
       <x:c r="F8" s="190" t="s">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G8" s="191"/>
       <x:c r="H8" s="191"/>
@@ -6043,12 +6032,12 @@
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="25"/>
       <x:c r="C10" s="183" t="s">
-        <x:v>68</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="183"/>
       <x:c r="E10" s="184"/>
       <x:c r="F10" s="190" t="s">
-        <x:v>58</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G10" s="191"/>
       <x:c r="H10" s="191"/>
@@ -6068,7 +6057,7 @@
       <x:c r="V10" s="6"/>
       <x:c r="W10" s="7"/>
       <x:c r="X10" s="185" t="s">
-        <x:v>77</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Y10" s="164"/>
       <x:c r="Z10" s="163">
@@ -6084,7 +6073,7 @@
       <x:c r="AE10" s="26"/>
       <x:c r="AF10" s="26"/>
       <x:c r="AG10" s="169" t="s">
-        <x:v>66</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="AH10" s="164"/>
       <x:c r="AI10" s="163">
@@ -6100,7 +6089,7 @@
       <x:c r="AN10" s="172"/>
       <x:c r="AO10" s="26"/>
       <x:c r="AP10" s="169" t="s">
-        <x:v>61</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AQ10" s="164"/>
       <x:c r="AR10" s="163">
@@ -6178,12 +6167,12 @@
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="25"/>
       <x:c r="C12" s="183" t="s">
-        <x:v>62</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="183"/>
       <x:c r="E12" s="184"/>
       <x:c r="F12" s="190" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G12" s="191"/>
       <x:c r="H12" s="191"/>
@@ -6192,10 +6181,10 @@
       <x:c r="K12" s="191"/>
       <x:c r="L12" s="192"/>
       <x:c r="M12" s="195" t="s">
-        <x:v>63</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N12" s="190" t="s">
-        <x:v>70</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O12" s="191"/>
       <x:c r="P12" s="191"/>
@@ -6305,12 +6294,12 @@
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="25"/>
       <x:c r="C14" s="183" t="s">
-        <x:v>76</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="183"/>
       <x:c r="E14" s="184"/>
       <x:c r="F14" s="190" t="s">
-        <x:v>67</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G14" s="191"/>
       <x:c r="H14" s="191"/>
@@ -6330,7 +6319,7 @@
       <x:c r="V14" s="6"/>
       <x:c r="W14" s="7"/>
       <x:c r="X14" s="185" t="s">
-        <x:v>73</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="Y14" s="164"/>
       <x:c r="Z14" s="163">
@@ -6346,7 +6335,7 @@
       <x:c r="AE14" s="26"/>
       <x:c r="AF14" s="26"/>
       <x:c r="AG14" s="169" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="AH14" s="164"/>
       <x:c r="AI14" s="163">
@@ -6362,7 +6351,7 @@
       <x:c r="AN14" s="172"/>
       <x:c r="AO14" s="26"/>
       <x:c r="AP14" s="169" t="s">
-        <x:v>92</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AQ14" s="164"/>
       <x:c r="AR14" s="163" t="str">
@@ -6438,12 +6427,12 @@
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="25"/>
       <x:c r="C16" s="183" t="s">
-        <x:v>103</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="183"/>
       <x:c r="E16" s="184"/>
       <x:c r="F16" s="177" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G16" s="178"/>
       <x:c r="H16" s="178"/>
@@ -6667,7 +6656,7 @@
     <x:row r="20" spans="1:53" customHeight="1">
       <x:c r="A20" s="5"/>
       <x:c r="B20" s="174" t="s">
-        <x:v>83</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C20" s="175"/>
       <x:c r="D20" s="175"/>
@@ -6684,7 +6673,7 @@
       <x:c r="O20" s="176"/>
       <x:c r="P20" s="55"/>
       <x:c r="Q20" s="197" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="198"/>
       <x:c r="S20" s="198"/>
@@ -6700,7 +6689,7 @@
       <x:c r="AC20" s="199"/>
       <x:c r="AD20" s="56"/>
       <x:c r="AE20" s="174" t="s">
-        <x:v>108</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="AF20" s="175"/>
       <x:c r="AG20" s="175"/>
@@ -6792,7 +6781,7 @@
       <x:c r="G22" s="205"/>
       <x:c r="H22" s="166"/>
       <x:c r="I22" s="206" t="s">
-        <x:v>91</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J22" s="209">
         <x:f>ROUNDDOWN(SUM(Z10,Z14)/10,0)</x:f>
@@ -6834,7 +6823,7 @@
       </x:c>
       <x:c r="AJ22" s="164"/>
       <x:c r="AK22" s="212" t="s">
-        <x:v>90</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL22" s="164"/>
       <x:c r="AM22" s="209">
@@ -6845,7 +6834,7 @@
       <x:c r="AP22" s="188"/>
       <x:c r="AQ22" s="164"/>
       <x:c r="AR22" s="213" t="s">
-        <x:v>91</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="AS22" s="209">
         <x:f>99-AS40</x:f>
@@ -6975,7 +6964,7 @@
     <x:row r="25" spans="1:53" ht="18.75" customHeight="1">
       <x:c r="A25" s="5"/>
       <x:c r="B25" s="216" t="s">
-        <x:v>74</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="217"/>
       <x:c r="D25" s="218"/>
@@ -6993,7 +6982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N25" s="219" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O25" s="220"/>
       <x:c r="P25" s="78"/>
@@ -7013,7 +7002,7 @@
       <x:c r="AD25" s="56"/>
       <x:c r="AE25" s="67"/>
       <x:c r="AF25" s="221" t="s">
-        <x:v>31</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="AG25" s="215"/>
       <x:c r="AH25" s="215"/>
@@ -7033,7 +7022,7 @@
       </x:c>
       <x:c r="AS25" s="172"/>
       <x:c r="AT25" s="223" t="s">
-        <x:v>35</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AU25" s="215"/>
       <x:c r="AV25" s="215"/>
@@ -7101,7 +7090,7 @@
     <x:row r="27" spans="1:53" customHeight="1">
       <x:c r="A27" s="5"/>
       <x:c r="B27" s="174" t="s">
-        <x:v>101</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C27" s="175"/>
       <x:c r="D27" s="175"/>
@@ -7118,7 +7107,7 @@
       <x:c r="O27" s="176"/>
       <x:c r="P27" s="84"/>
       <x:c r="Q27" s="174" t="s">
-        <x:v>28</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="R27" s="175"/>
       <x:c r="S27" s="175"/>
@@ -7126,7 +7115,7 @@
       <x:c r="U27" s="175"/>
       <x:c r="V27" s="224"/>
       <x:c r="W27" s="225" t="s">
-        <x:v>87</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="X27" s="175"/>
       <x:c r="Y27" s="175"/>
@@ -7136,7 +7125,7 @@
       <x:c r="AC27" s="176"/>
       <x:c r="AD27" s="85"/>
       <x:c r="AE27" s="226" t="s">
-        <x:v>38</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="AF27" s="215"/>
       <x:c r="AG27" s="215"/>
@@ -7203,7 +7192,7 @@
       <x:c r="AK28" s="69"/>
       <x:c r="AL28" s="69"/>
       <x:c r="AM28" s="229" t="s">
-        <x:v>81</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="AN28" s="188"/>
       <x:c r="AO28" s="188"/>
@@ -7246,17 +7235,15 @@
       <x:c r="O29" s="91"/>
       <x:c r="P29" s="92"/>
       <x:c r="Q29" s="93"/>
-      <x:c r="R29" s="209" t="str">
-        <x:f>_xlfn.IFS(SUM(Z6,Z14)&lt;64,"-2",AND(SUM(Z6,Z14)&gt;=65,SUM(Z6,Z14)&lt;=84),"-1",AND(SUM(Z6,Z14)&gt;=85,SUM(Z6,Z14)&lt;=124),"0",AND(SUM(Z6,Z14)&gt;=125,SUM(Z6,Z14)&lt;=164),"+1D4",AND(SUM(Z6,Z14)&gt;=165,SUM(Z6,Z14)&lt;=204),"+1D6",AND(SUM(Z6,Z14)&gt;=205,SUM(Z6,Z14)&lt;=284),"+2D6",AND(SUM(Z6,Z14)&gt;=285,SUM(Z6,Z14)&lt;=364),"+3D6",AND(SUM(Z6,Z14)&gt;=365,SUM(Z6,Z14)&lt;=444),"+4D6",AND(SUM(Z6,Z14)&gt;=445,SUM(Z6,Z14)&lt;=524),"+5D6")</x:f>
-        <x:v>0</x:v>
+      <x:c r="R29" s="209" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="S29" s="188"/>
       <x:c r="T29" s="188"/>
       <x:c r="U29" s="188"/>
       <x:c r="V29" s="235"/>
-      <x:c r="W29" s="237" t="str">
-        <x:f>_xlfn.IFS(SUM(Z6,Z14)&lt;64,"-2",AND(SUM(Z6,Z14)&gt;=65,SUM(Z6,Z14)&lt;=84),"-1",AND(SUM(Z6,Z14)&gt;=85,SUM(Z6,Z14)&lt;=124),"0",AND(SUM(Z6,Z14)&gt;=125,SUM(Z6,Z14)&lt;=164),"1",AND(SUM(Z6,Z14)&gt;=165,SUM(Z6,Z14)&lt;=204),"2",AND(SUM(Z6,Z14)&gt;=205,SUM(Z6,Z14)&lt;=284),"3",AND(SUM(Z6,Z14)&gt;=285,SUM(Z6,Z14)&lt;=364),"4",AND(SUM(Z6,Z14)&gt;=365,SUM(Z6,Z14)&lt;=444),"5",AND(SUM(Z6,Z14)&gt;=445,SUM(Z6,Z14)&lt;=524),"6")</x:f>
-        <x:v>0</x:v>
+      <x:c r="W29" s="237">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X29" s="188"/>
       <x:c r="Y29" s="188"/>
@@ -7331,7 +7318,7 @@
       <x:c r="AK30" s="69"/>
       <x:c r="AL30" s="69"/>
       <x:c r="AM30" s="229" t="s">
-        <x:v>100</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="AN30" s="188"/>
       <x:c r="AO30" s="188"/>
@@ -7461,7 +7448,7 @@
     <x:row r="33" spans="1:53" customHeight="1">
       <x:c r="A33" s="5"/>
       <x:c r="B33" s="174" t="s">
-        <x:v>72</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C33" s="175"/>
       <x:c r="D33" s="175"/>
@@ -7478,7 +7465,7 @@
       <x:c r="O33" s="176"/>
       <x:c r="P33" s="1"/>
       <x:c r="Q33" s="238" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="R33" s="198"/>
       <x:c r="S33" s="198"/>
@@ -7494,7 +7481,7 @@
       <x:c r="AC33" s="199"/>
       <x:c r="AD33" s="113"/>
       <x:c r="AE33" s="226" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AF33" s="215"/>
       <x:c r="AG33" s="215"/>
@@ -7586,7 +7573,7 @@
       <x:c r="G35" s="191"/>
       <x:c r="H35" s="192"/>
       <x:c r="I35" s="119" t="s">
-        <x:v>91</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J35" s="239">
         <x:f>ROUNDDOWN(AR6/5,0)</x:f>
@@ -7749,7 +7736,7 @@
     <x:row r="38" spans="1:53" customHeight="1">
       <x:c r="A38" s="5"/>
       <x:c r="B38" s="174" t="s">
-        <x:v>37</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="175"/>
       <x:c r="D38" s="175"/>
@@ -7807,7 +7794,7 @@
       <x:c r="A39" s="5"/>
       <x:c r="B39" s="129"/>
       <x:c r="C39" s="241" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D39" s="189"/>
       <x:c r="E39" s="189"/>
@@ -7825,7 +7812,7 @@
       <x:c r="N39" s="189"/>
       <x:c r="O39" s="130"/>
       <x:c r="P39" s="241" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q39" s="189"/>
       <x:c r="R39" s="189"/>
@@ -7843,7 +7830,7 @@
       <x:c r="AA39" s="168"/>
       <x:c r="AB39" s="131"/>
       <x:c r="AC39" s="241" t="s">
-        <x:v>27</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="AD39" s="189"/>
       <x:c r="AE39" s="189"/>
@@ -7857,7 +7844,7 @@
       <x:c r="AK39" s="189"/>
       <x:c r="AL39" s="168"/>
       <x:c r="AM39" s="245" t="s">
-        <x:v>39</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="AN39" s="189"/>
       <x:c r="AO39" s="189"/>
@@ -7884,7 +7871,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="246" t="s">
-        <x:v>80</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E40" s="215"/>
       <x:c r="F40" s="215"/>
@@ -7912,7 +7899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q40" s="246" t="s">
-        <x:v>32</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="R40" s="215"/>
       <x:c r="S40" s="215"/>
@@ -7940,7 +7927,7 @@
       <x:c r="AC40" s="69"/>
       <x:c r="AD40" s="79"/>
       <x:c r="AE40" s="246" t="s">
-        <x:v>29</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="AF40" s="215"/>
       <x:c r="AG40" s="215"/>
@@ -7985,7 +7972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="246" t="s">
-        <x:v>95</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E41" s="215"/>
       <x:c r="F41" s="215"/>
@@ -8013,7 +8000,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q41" s="246" t="s">
-        <x:v>102</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="R41" s="215"/>
       <x:c r="S41" s="215"/>
@@ -8042,7 +8029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE41" s="246" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="AF41" s="215"/>
       <x:c r="AG41" s="215"/>
@@ -8085,7 +8072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="246" t="s">
-        <x:v>89</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E42" s="215"/>
       <x:c r="F42" s="215"/>
@@ -8115,7 +8102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q42" s="246" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="R42" s="215"/>
       <x:c r="S42" s="215"/>
@@ -8144,7 +8131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE42" s="246" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="AF42" s="215"/>
       <x:c r="AG42" s="215"/>
@@ -8187,7 +8174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="246" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E43" s="215"/>
       <x:c r="F43" s="215"/>
@@ -8217,7 +8204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q43" s="246" t="s">
-        <x:v>94</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="R43" s="215"/>
       <x:c r="S43" s="215"/>
@@ -8246,7 +8233,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE43" s="246" t="s">
-        <x:v>109</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="AF43" s="215"/>
       <x:c r="AG43" s="215"/>
@@ -8289,7 +8276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="246" t="s">
-        <x:v>36</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E44" s="215"/>
       <x:c r="F44" s="215"/>
@@ -8317,7 +8304,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q44" s="246" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R44" s="215"/>
       <x:c r="S44" s="215"/>
@@ -8346,7 +8333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE44" s="229" t="s">
-        <x:v>84</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF44" s="188"/>
       <x:c r="AG44" s="188"/>
@@ -8390,7 +8377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="246" t="s">
-        <x:v>105</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E45" s="215"/>
       <x:c r="F45" s="215"/>
@@ -8418,7 +8405,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q45" s="246" t="s">
-        <x:v>97</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R45" s="215"/>
       <x:c r="S45" s="215"/>
@@ -8447,14 +8434,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE45" s="249" t="s">
-        <x:v>40</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="AF45" s="189"/>
       <x:c r="AG45" s="189"/>
       <x:c r="AH45" s="189"/>
       <x:c r="AI45" s="189"/>
       <x:c r="AJ45" s="250" t="s">
-        <x:v>107</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="AK45" s="189"/>
       <x:c r="AL45" s="189"/>
@@ -8495,7 +8482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="246" t="s">
-        <x:v>59</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E46" s="215"/>
       <x:c r="F46" s="215"/>
@@ -8525,7 +8512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q46" s="246" t="s">
-        <x:v>41</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R46" s="215"/>
       <x:c r="S46" s="215"/>
@@ -8598,7 +8585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="246" t="s">
-        <x:v>98</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E47" s="215"/>
       <x:c r="F47" s="215"/>
@@ -8626,7 +8613,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q47" s="246" t="s">
-        <x:v>34</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="R47" s="215"/>
       <x:c r="S47" s="215"/>
@@ -8699,7 +8686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="246" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E48" s="215"/>
       <x:c r="F48" s="215"/>
@@ -8729,7 +8716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q48" s="246" t="s">
-        <x:v>106</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R48" s="215"/>
       <x:c r="S48" s="215"/>
@@ -8800,7 +8787,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="246" t="s">
-        <x:v>93</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E49" s="215"/>
       <x:c r="F49" s="215"/>
@@ -8828,7 +8815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q49" s="246" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="R49" s="215"/>
       <x:c r="S49" s="215"/>
@@ -8899,7 +8886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="246" t="s">
-        <x:v>131</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E50" s="215"/>
       <x:c r="F50" s="215"/>
@@ -8927,7 +8914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q50" s="246" t="s">
-        <x:v>33</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="R50" s="215"/>
       <x:c r="S50" s="215"/>
@@ -9000,7 +8987,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="246" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E51" s="215"/>
       <x:c r="F51" s="215"/>
@@ -9030,7 +9017,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q51" s="246" t="s">
-        <x:v>49</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="R51" s="215"/>
       <x:c r="S51" s="215"/>
@@ -9103,7 +9090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="246" t="s">
-        <x:v>48</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E52" s="215"/>
       <x:c r="F52" s="215"/>
@@ -9131,7 +9118,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q52" s="246" t="s">
-        <x:v>121</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="R52" s="215"/>
       <x:c r="S52" s="215"/>
@@ -9202,7 +9189,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="246" t="s">
-        <x:v>117</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E53" s="215"/>
       <x:c r="F53" s="215"/>
@@ -9228,7 +9215,7 @@
       <x:c r="O53" s="69"/>
       <x:c r="P53" s="79"/>
       <x:c r="Q53" s="246" t="s">
-        <x:v>113</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="R53" s="215"/>
       <x:c r="S53" s="215"/>
@@ -9301,7 +9288,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="246" t="s">
-        <x:v>122</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E54" s="215"/>
       <x:c r="F54" s="215"/>
@@ -9331,7 +9318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q54" s="246" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="R54" s="215"/>
       <x:c r="S54" s="215"/>
@@ -9402,7 +9389,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="246" t="s">
-        <x:v>111</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E55" s="215"/>
       <x:c r="F55" s="215"/>
@@ -9430,7 +9417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q55" s="246" t="s">
-        <x:v>24</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="R55" s="215"/>
       <x:c r="S55" s="215"/>
@@ -9504,7 +9491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="246" t="s">
-        <x:v>124</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E56" s="215"/>
       <x:c r="F56" s="215"/>
@@ -9532,7 +9519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q56" s="246" t="s">
-        <x:v>45</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="R56" s="215"/>
       <x:c r="S56" s="215"/>
@@ -9606,7 +9593,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="229" t="s">
-        <x:v>120</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E57" s="188"/>
       <x:c r="F57" s="188"/>
@@ -9636,7 +9623,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q57" s="229" t="s">
-        <x:v>110</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="R57" s="188"/>
       <x:c r="S57" s="188"/>
@@ -9816,7 +9803,7 @@
     <x:row r="60" spans="1:53" customHeight="1">
       <x:c r="A60" s="5"/>
       <x:c r="B60" s="174" t="s">
-        <x:v>132</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C60" s="175"/>
       <x:c r="D60" s="175"/>
@@ -9874,7 +9861,7 @@
       <x:c r="A61" s="5"/>
       <x:c r="B61" s="149"/>
       <x:c r="C61" s="263" t="s">
-        <x:v>114</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D61" s="189"/>
       <x:c r="E61" s="189"/>
@@ -9892,7 +9879,7 @@
       <x:c r="Q61" s="189"/>
       <x:c r="R61" s="168"/>
       <x:c r="S61" s="263" t="s">
-        <x:v>129</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T61" s="189"/>
       <x:c r="U61" s="189"/>
@@ -9901,7 +9888,7 @@
       <x:c r="X61" s="189"/>
       <x:c r="Y61" s="168"/>
       <x:c r="Z61" s="263" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="AA61" s="189"/>
       <x:c r="AB61" s="189"/>
@@ -9912,11 +9899,11 @@
       <x:c r="AG61" s="189"/>
       <x:c r="AH61" s="168"/>
       <x:c r="AI61" s="263" t="s">
-        <x:v>119</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="AJ61" s="168"/>
       <x:c r="AK61" s="263" t="s">
-        <x:v>19</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AL61" s="189"/>
       <x:c r="AM61" s="189"/>
@@ -9924,14 +9911,14 @@
       <x:c r="AO61" s="189"/>
       <x:c r="AP61" s="168"/>
       <x:c r="AQ61" s="263" t="s">
-        <x:v>104</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="AR61" s="189"/>
       <x:c r="AS61" s="189"/>
       <x:c r="AT61" s="189"/>
       <x:c r="AU61" s="168"/>
       <x:c r="AV61" s="263" t="s">
-        <x:v>112</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="AW61" s="189"/>
       <x:c r="AX61" s="189"/>
@@ -9943,7 +9930,7 @@
       <x:c r="A62" s="5"/>
       <x:c r="B62" s="67"/>
       <x:c r="C62" s="247" t="s">
-        <x:v>116</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D62" s="215"/>
       <x:c r="E62" s="215"/>
@@ -9961,7 +9948,7 @@
       <x:c r="Q62" s="215"/>
       <x:c r="R62" s="172"/>
       <x:c r="S62" s="247" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="T62" s="215"/>
       <x:c r="U62" s="215"/>
@@ -9970,20 +9957,20 @@
       <x:c r="X62" s="215"/>
       <x:c r="Y62" s="172"/>
       <x:c r="Z62" s="247" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="AA62" s="215"/>
       <x:c r="AB62" s="215"/>
       <x:c r="AC62" s="172"/>
       <x:c r="AD62" s="247" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="AE62" s="215"/>
       <x:c r="AF62" s="215"/>
       <x:c r="AG62" s="215"/>
       <x:c r="AH62" s="172"/>
       <x:c r="AI62" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AJ62" s="172"/>
       <x:c r="AK62" s="247">
@@ -9995,14 +9982,14 @@
       <x:c r="AO62" s="215"/>
       <x:c r="AP62" s="172"/>
       <x:c r="AQ62" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AR62" s="215"/>
       <x:c r="AS62" s="215"/>
       <x:c r="AT62" s="215"/>
       <x:c r="AU62" s="172"/>
       <x:c r="AV62" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AW62" s="215"/>
       <x:c r="AX62" s="215"/>
@@ -10014,7 +10001,7 @@
       <x:c r="A63" s="5"/>
       <x:c r="B63" s="67"/>
       <x:c r="C63" s="247" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D63" s="215"/>
       <x:c r="E63" s="215"/>
@@ -10032,7 +10019,7 @@
       <x:c r="Q63" s="215"/>
       <x:c r="R63" s="172"/>
       <x:c r="S63" s="247" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T63" s="215"/>
       <x:c r="U63" s="215"/>
@@ -10041,7 +10028,7 @@
       <x:c r="X63" s="215"/>
       <x:c r="Y63" s="172"/>
       <x:c r="Z63" s="247" t="s">
-        <x:v>20</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="AA63" s="215"/>
       <x:c r="AB63" s="215"/>
@@ -10056,7 +10043,7 @@
       </x:c>
       <x:c r="AJ63" s="172"/>
       <x:c r="AK63" s="247" t="s">
-        <x:v>46</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="AL63" s="215"/>
       <x:c r="AM63" s="215"/>
@@ -10083,7 +10070,7 @@
       <x:c r="A64" s="5"/>
       <x:c r="B64" s="67"/>
       <x:c r="C64" s="247" t="s">
-        <x:v>115</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D64" s="215"/>
       <x:c r="E64" s="215"/>
@@ -10101,7 +10088,7 @@
       <x:c r="Q64" s="215"/>
       <x:c r="R64" s="172"/>
       <x:c r="S64" s="247" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="T64" s="215"/>
       <x:c r="U64" s="215"/>
@@ -10110,20 +10097,20 @@
       <x:c r="X64" s="215"/>
       <x:c r="Y64" s="172"/>
       <x:c r="Z64" s="247" t="s">
-        <x:v>50</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="AA64" s="215"/>
       <x:c r="AB64" s="215"/>
       <x:c r="AC64" s="172"/>
       <x:c r="AD64" s="247" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="AE64" s="215"/>
       <x:c r="AF64" s="215"/>
       <x:c r="AG64" s="215"/>
       <x:c r="AH64" s="172"/>
       <x:c r="AI64" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AJ64" s="172"/>
       <x:c r="AK64" s="247">
@@ -10135,14 +10122,14 @@
       <x:c r="AO64" s="215"/>
       <x:c r="AP64" s="172"/>
       <x:c r="AQ64" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AR64" s="215"/>
       <x:c r="AS64" s="215"/>
       <x:c r="AT64" s="215"/>
       <x:c r="AU64" s="172"/>
       <x:c r="AV64" s="247" t="s">
-        <x:v>88</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AW64" s="215"/>
       <x:c r="AX64" s="215"/>
@@ -10318,7 +10305,7 @@
     <x:row r="68" spans="1:53" customHeight="1">
       <x:c r="A68" s="5"/>
       <x:c r="B68" s="174" t="s">
-        <x:v>30</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C68" s="175"/>
       <x:c r="D68" s="175"/>
@@ -10342,7 +10329,7 @@
       <x:c r="V68" s="1"/>
       <x:c r="W68" s="4"/>
       <x:c r="X68" s="174" t="s">
-        <x:v>53</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="Y68" s="175"/>
       <x:c r="Z68" s="175"/>
@@ -10433,7 +10420,7 @@
       <x:c r="A70" s="5"/>
       <x:c r="B70" s="67"/>
       <x:c r="C70" s="265" t="s">
-        <x:v>7</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D70" s="188"/>
       <x:c r="E70" s="188"/>
@@ -10457,7 +10444,7 @@
       <x:c r="W70" s="4"/>
       <x:c r="X70" s="67"/>
       <x:c r="Y70" s="272" t="s">
-        <x:v>25</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="Z70" s="215"/>
       <x:c r="AA70" s="172"/>
@@ -10514,7 +10501,7 @@
       <x:c r="W71" s="4"/>
       <x:c r="X71" s="67"/>
       <x:c r="Y71" s="272" t="s">
-        <x:v>128</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Z71" s="215"/>
       <x:c r="AA71" s="172"/>
@@ -10571,7 +10558,7 @@
       <x:c r="W72" s="4"/>
       <x:c r="X72" s="67"/>
       <x:c r="Y72" s="272" t="s">
-        <x:v>125</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Z72" s="215"/>
       <x:c r="AA72" s="172"/>
@@ -10770,7 +10757,7 @@
     <x:row r="76" spans="1:53" customHeight="1">
       <x:c r="A76" s="5"/>
       <x:c r="B76" s="174" t="s">
-        <x:v>51</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C76" s="175"/>
       <x:c r="D76" s="175"/>
@@ -10828,7 +10815,7 @@
       <x:c r="A77" s="5"/>
       <x:c r="B77" s="153"/>
       <x:c r="C77" s="273" t="s">
-        <x:v>118</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D77" s="189"/>
       <x:c r="E77" s="189"/>
@@ -10851,7 +10838,7 @@
       <x:c r="V77" s="154"/>
       <x:c r="W77" s="154"/>
       <x:c r="X77" s="273" t="s">
-        <x:v>127</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Y77" s="189"/>
       <x:c r="Z77" s="189"/>
@@ -10894,7 +10881,7 @@
       <x:c r="H78" s="215"/>
       <x:c r="I78" s="215"/>
       <x:c r="J78" s="275" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K78" s="215"/>
       <x:c r="L78" s="215"/>
@@ -10944,7 +10931,7 @@
       <x:c r="A79" s="5"/>
       <x:c r="B79" s="156"/>
       <x:c r="C79" s="276" t="s">
-        <x:v>47</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D79" s="215"/>
       <x:c r="E79" s="215"/>
@@ -10967,7 +10954,7 @@
       <x:c r="V79" s="134"/>
       <x:c r="W79" s="134"/>
       <x:c r="X79" s="276" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Y79" s="215"/>
       <x:c r="Z79" s="215"/>
@@ -11003,7 +10990,7 @@
       <x:c r="A80" s="5"/>
       <x:c r="B80" s="156"/>
       <x:c r="C80" s="274" t="s">
-        <x:v>8</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D80" s="215"/>
       <x:c r="E80" s="215"/>
@@ -11026,7 +11013,7 @@
       <x:c r="V80" s="134"/>
       <x:c r="W80" s="134"/>
       <x:c r="X80" s="274" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Y80" s="215"/>
       <x:c r="Z80" s="215"/>
@@ -11062,7 +11049,7 @@
       <x:c r="A81" s="5"/>
       <x:c r="B81" s="156"/>
       <x:c r="C81" s="276" t="s">
-        <x:v>26</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D81" s="215"/>
       <x:c r="E81" s="215"/>
@@ -11085,7 +11072,7 @@
       <x:c r="V81" s="134"/>
       <x:c r="W81" s="134"/>
       <x:c r="X81" s="276" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y81" s="215"/>
       <x:c r="Z81" s="215"/>
@@ -11121,7 +11108,7 @@
       <x:c r="A82" s="5"/>
       <x:c r="B82" s="156"/>
       <x:c r="C82" s="274" t="s">
-        <x:v>52</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D82" s="215"/>
       <x:c r="E82" s="215"/>
@@ -11144,7 +11131,7 @@
       <x:c r="V82" s="134"/>
       <x:c r="W82" s="134"/>
       <x:c r="X82" s="274" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="Y82" s="215"/>
       <x:c r="Z82" s="215"/>
@@ -11260,7 +11247,7 @@
       <x:c r="V84" s="134"/>
       <x:c r="W84" s="134"/>
       <x:c r="X84" s="274" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Y84" s="215"/>
       <x:c r="Z84" s="215"/>
@@ -11296,7 +11283,7 @@
       <x:c r="A85" s="5"/>
       <x:c r="B85" s="156"/>
       <x:c r="C85" s="276" t="s">
-        <x:v>42</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D85" s="215"/>
       <x:c r="E85" s="215"/>
@@ -11319,7 +11306,7 @@
       <x:c r="V85" s="134"/>
       <x:c r="W85" s="134"/>
       <x:c r="X85" s="276" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Y85" s="215"/>
       <x:c r="Z85" s="215"/>
@@ -11355,7 +11342,7 @@
       <x:c r="A86" s="5"/>
       <x:c r="B86" s="158"/>
       <x:c r="C86" s="274" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D86" s="215"/>
       <x:c r="E86" s="215"/>
@@ -11378,7 +11365,7 @@
       <x:c r="V86" s="134"/>
       <x:c r="W86" s="134"/>
       <x:c r="X86" s="274" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Y86" s="215"/>
       <x:c r="Z86" s="215"/>
@@ -11901,7 +11888,7 @@
     </x:dataValidation>
   </x:dataValidations>
   <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="1" gridLinesSet="1"/>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="1" scale="80" firstPageNumber="1" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="atEnd" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
   <x:legacyDrawing r:id="rId2"/>
